--- a/src/test/java/Resources/TISH.xlsx
+++ b/src/test/java/Resources/TISH.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TotalConcepts\SeleniumPractice\src\test\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CC81B-CEC8-4417-A56D-69B83BBB37CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBC162C-957C-45EF-B1B5-6EC50DF14A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>https://www.google.co.in/</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://www.wikipedia.org/</t>
+  </si>
+  <si>
+    <t>FHFHFG</t>
+  </si>
+  <si>
+    <t>DFGF</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>https://ww.google.co.in/</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Atish</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
   </si>
 </sst>
 </file>
@@ -359,28 +381,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D536E289-A8DC-473A-9D5E-0D16B41751EA}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D536E289-A8DC-473A-9D5E-0D16B41751EA}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{BF111649-B13B-4F6A-B3F3-B04DEEF7E582}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D7EDC-5F2C-4B77-B4D2-59B2287F904B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>